--- a/medicine/Enfance/Paul_Biegel/Paul_Biegel.xlsx
+++ b/medicine/Enfance/Paul_Biegel/Paul_Biegel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Biegel (25 mars 1925, Bussum – 21 octobre 2006, Laren) est un auteur néerlandais de littérature d'enfance et de jeunesse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Biegel (25 mars 1925, Bussum – 21 octobre 2006, Laren) est un auteur néerlandais de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Biegel naît à Bussum en 1925. Son père, Hermann Biegel, d'origine allemande, tenait un commerce de matériaux de construction. Avec sa femme Madeleine Povel-Guillot, ils ont neuf enfants, six filles et trois garçons, dont Paul est le plus jeune. Il lit peu dans son enfance, préférant jouer dehors. Ses livres préférés sont les contes de Grimm et les romans de Jules Verne. Après le primaire à Bussum, il passe son examen à Amsterdam en 1945.
 Sa première histoire, De ontevreden kabouter (Le gnome malheureux), écrite quand il a 14 ans, paraît dans le journal De Tijd. Il veut d'abord être pianiste, mais il trouve qu'il n'a pas assez de talent. Il part aux États-Unis pour un an après la Seconde Guerre mondiale, et il travaille pour The Knickerbocker Weekly. À son retour, il travaille pour des revues néerlandaises comme Avrobode. Il écrit plusieurs bandes dessinées pour la presse, dont la plus importante est Minter &amp; Hinter, qui paraît dans Het Vrije Volk. En 1959, il commence à travailler dans l'atelier de bande dessinée de Marten Toonder comme scénariste pour la série Kappie.
@@ -546,7 +560,9 @@
           <t>Œuvres traduites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Petit Capitaine (De Kleine kapitein, 1971), Bibliothèque rose, traduit par Olivier Séchan, 1976.
 Le Petit Capitaine au pays des sept tours (De Kleine kapitein in het land van Waan en wĳs, 1973), Bibliothèque rose, 1976.
@@ -584,12 +600,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1965 : Gouden Griffel pour Het sleutelkruid (L'herbe-clé)
 1972 : Gouden Griffel pour De kleine kapitein
 1993 : Gouden Griffel pour Nachtverhaal
-1994 : (international) « Honour List »[2] de l' IBBY pour Nachtverhaal
+1994 : (international) « Honour List » de l' IBBY pour Nachtverhaal
 1999 : Ordre du Lion néerlandais</t>
         </is>
       </c>
